--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1955263.439554353</v>
+        <v>1951519.870013321</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2295956.101218068</v>
+        <v>2341983.383206079</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791247</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8866039.953895252</v>
+        <v>8864796.303510642</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.93129518629919</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>36.16092026117357</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>71.24719361297836</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>51.94707680657798</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>72.55567497641739</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>35.17539975317084</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>243.4281184309176</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>36.58643332170959</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>105.3189485573247</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>47.21676074617586</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>39.71534783581649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>208.4342733223273</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>62.47176923495176</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,10 +1376,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>43.01721371098616</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>10.76124383727415</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627308</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>146.334247958418</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422876431</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380521</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596462</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380521</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596462</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.59377642287555</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277567</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059322</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541631</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.995969188804</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C25" t="n">
-        <v>38.1430974390864</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092613</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380524</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357251</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596464</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253669</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708617</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369185</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.5209712559388</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2612,7 +2612,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>6.27138198537142</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
         <v>273.2977702070789</v>
@@ -2621,7 +2621,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>177.0269289140253</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2801,7 +2801,7 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>197.226621010743</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>34.87468546324959</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
@@ -3266,7 +3266,7 @@
         <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799145</v>
@@ -3275,7 +3275,7 @@
         <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277547</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
         <v>122.8352329541629</v>
@@ -3326,7 +3326,7 @@
         <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325497</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1280864677959</v>
+        <v>289.0582874597573</v>
       </c>
       <c r="C41" t="n">
-        <v>276.8820346956117</v>
+        <v>281.8122356875731</v>
       </c>
       <c r="D41" t="n">
-        <v>269.225005709012</v>
+        <v>274.1552067009733</v>
       </c>
       <c r="E41" t="n">
-        <v>286.1959778481339</v>
+        <v>248.7989181865646</v>
       </c>
       <c r="F41" t="n">
-        <v>216.3725456659102</v>
+        <v>305.2939832907964</v>
       </c>
       <c r="G41" t="n">
-        <v>296.6694161703899</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>208.4805081426873</v>
+        <v>213.4107091346486</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.52223494393421</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.41690871383433</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>113.8340856216519</v>
       </c>
       <c r="U41" t="n">
-        <v>140.8334904832604</v>
+        <v>145.7636914752218</v>
       </c>
       <c r="V41" t="n">
-        <v>226.3240294170298</v>
+        <v>231.2542304089912</v>
       </c>
       <c r="W41" t="n">
-        <v>254.9273328949084</v>
+        <v>259.8575338868698</v>
       </c>
       <c r="X41" t="n">
-        <v>273.1963672297867</v>
+        <v>278.1265682217481</v>
       </c>
       <c r="Y41" t="n">
-        <v>280.1640902021179</v>
+        <v>285.0942911940793</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99422671790128</v>
+        <v>75.92442770986266</v>
       </c>
       <c r="C43" t="n">
-        <v>56.14135496818369</v>
+        <v>61.07155596014506</v>
       </c>
       <c r="D43" t="n">
-        <v>41.71507018002342</v>
+        <v>46.64527117198479</v>
       </c>
       <c r="E43" t="n">
-        <v>41.64151223290253</v>
+        <v>46.5717132248639</v>
       </c>
       <c r="F43" t="n">
-        <v>43.3909636526698</v>
+        <v>48.32116464463117</v>
       </c>
       <c r="G43" t="n">
-        <v>54.20980157506193</v>
+        <v>59.1400025670233</v>
       </c>
       <c r="H43" t="n">
-        <v>41.56205374163397</v>
+        <v>46.49225473359535</v>
       </c>
       <c r="I43" t="n">
-        <v>19.4017693228059</v>
+        <v>24.33197031476728</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.30026768726182</v>
+        <v>15.23046867922319</v>
       </c>
       <c r="S43" t="n">
-        <v>88.42621119278914</v>
+        <v>93.35641218475051</v>
       </c>
       <c r="T43" t="n">
-        <v>121.0001495269612</v>
+        <v>125.9303505189226</v>
       </c>
       <c r="U43" t="n">
-        <v>170.2226920540311</v>
+        <v>175.1528930459925</v>
       </c>
       <c r="V43" t="n">
-        <v>150.957839940897</v>
+        <v>155.8880409328584</v>
       </c>
       <c r="W43" t="n">
-        <v>168.1353862616472</v>
+        <v>173.0655872536086</v>
       </c>
       <c r="X43" t="n">
-        <v>119.3778072083597</v>
+        <v>124.3080082003211</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5192287850361</v>
+        <v>113.4494297769975</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.15422353133462</v>
+        <v>289.0582874597573</v>
       </c>
       <c r="C44" t="n">
-        <v>276.8820346956118</v>
+        <v>281.8122356875731</v>
       </c>
       <c r="D44" t="n">
-        <v>269.225005709012</v>
+        <v>230.578181677509</v>
       </c>
       <c r="E44" t="n">
-        <v>286.1959778481339</v>
+        <v>291.1261788400952</v>
       </c>
       <c r="F44" t="n">
-        <v>300.3637822988351</v>
+        <v>305.2939832907964</v>
       </c>
       <c r="G44" t="n">
-        <v>296.6694161703899</v>
+        <v>301.5996171623513</v>
       </c>
       <c r="H44" t="n">
-        <v>208.4805081426873</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>24.59203395197287</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.48670772187299</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>108.9038846296905</v>
+        <v>113.8340856216519</v>
       </c>
       <c r="U44" t="n">
-        <v>140.8334904832604</v>
+        <v>145.7636914752217</v>
       </c>
       <c r="V44" t="n">
-        <v>226.3240294170298</v>
+        <v>231.2542304089912</v>
       </c>
       <c r="W44" t="n">
-        <v>254.9273328949085</v>
+        <v>259.8575338868698</v>
       </c>
       <c r="X44" t="n">
-        <v>273.1963672297868</v>
+        <v>278.1265682217481</v>
       </c>
       <c r="Y44" t="n">
-        <v>280.1640902021179</v>
+        <v>285.0942911940792</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.99422671790131</v>
+        <v>75.92442770986264</v>
       </c>
       <c r="C46" t="n">
-        <v>56.14135496818372</v>
+        <v>61.07155596014505</v>
       </c>
       <c r="D46" t="n">
-        <v>41.71507018002345</v>
+        <v>46.64527117198477</v>
       </c>
       <c r="E46" t="n">
-        <v>41.64151223290256</v>
+        <v>46.57171322486388</v>
       </c>
       <c r="F46" t="n">
-        <v>43.39096365266983</v>
+        <v>48.32116464463115</v>
       </c>
       <c r="G46" t="n">
-        <v>54.20980157506196</v>
+        <v>59.14000256702329</v>
       </c>
       <c r="H46" t="n">
-        <v>41.562053741634</v>
+        <v>46.49225473359533</v>
       </c>
       <c r="I46" t="n">
-        <v>19.40176932280593</v>
+        <v>24.33197031476726</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.30026768726185</v>
+        <v>15.23046867922318</v>
       </c>
       <c r="S46" t="n">
-        <v>88.42621119278917</v>
+        <v>93.3564121847505</v>
       </c>
       <c r="T46" t="n">
-        <v>121.0001495269613</v>
+        <v>125.9303505189226</v>
       </c>
       <c r="U46" t="n">
-        <v>170.2226920540311</v>
+        <v>175.1528930459924</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9578399408971</v>
+        <v>155.8880409328584</v>
       </c>
       <c r="W46" t="n">
-        <v>168.1353862616472</v>
+        <v>173.0655872536085</v>
       </c>
       <c r="X46" t="n">
-        <v>119.3778072083598</v>
+        <v>124.3080082003211</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5192287850361</v>
+        <v>113.4494297769974</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1231.648591860348</v>
+        <v>947.0171529330395</v>
       </c>
       <c r="C2" t="n">
-        <v>1231.648591860348</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="D2" t="n">
-        <v>1231.648591860348</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="E2" t="n">
-        <v>1195.122409778354</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="F2" t="n">
-        <v>778.2279713083323</v>
+        <v>915.0405981132201</v>
       </c>
       <c r="G2" t="n">
-        <v>365.0652157963354</v>
+        <v>501.8778426012232</v>
       </c>
       <c r="H2" t="n">
-        <v>40.98216536282604</v>
+        <v>177.7947921677138</v>
       </c>
       <c r="I2" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="J2" t="n">
-        <v>185.6319382716541</v>
+        <v>104.2908920195792</v>
       </c>
       <c r="K2" t="n">
-        <v>185.6319382716541</v>
+        <v>463.2732480470411</v>
       </c>
       <c r="L2" t="n">
-        <v>409.9145143780806</v>
+        <v>951.5619793917521</v>
       </c>
       <c r="M2" t="n">
-        <v>917.0688107430529</v>
+        <v>951.5619793917521</v>
       </c>
       <c r="N2" t="n">
-        <v>1424.223107108025</v>
+        <v>1439.850710736463</v>
       </c>
       <c r="O2" t="n">
-        <v>1864.262708000354</v>
+        <v>1439.850710736463</v>
       </c>
       <c r="P2" t="n">
-        <v>1864.262708000354</v>
+        <v>1788.038202867985</v>
       </c>
       <c r="Q2" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008933</v>
       </c>
       <c r="R2" t="n">
-        <v>2011.115354426824</v>
+        <v>1934.890849294455</v>
       </c>
       <c r="S2" t="n">
-        <v>1844.601799367875</v>
+        <v>1768.377294235506</v>
       </c>
       <c r="T2" t="n">
-        <v>1621.101196927291</v>
+        <v>1544.876691794922</v>
       </c>
       <c r="U2" t="n">
-        <v>1621.101196927291</v>
+        <v>1289.123962229521</v>
       </c>
       <c r="V2" t="n">
-        <v>1621.101196927291</v>
+        <v>947.0171529330395</v>
       </c>
       <c r="W2" t="n">
-        <v>1621.101196927291</v>
+        <v>947.0171529330395</v>
       </c>
       <c r="X2" t="n">
-        <v>1231.648591860348</v>
+        <v>947.0171529330395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1231.648591860348</v>
+        <v>947.0171529330395</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.1387163056975</v>
+        <v>688.1694279603018</v>
       </c>
       <c r="C3" t="n">
-        <v>379.4844858657897</v>
+        <v>688.1694279603018</v>
       </c>
       <c r="D3" t="n">
-        <v>249.39551848727</v>
+        <v>558.0804605817822</v>
       </c>
       <c r="E3" t="n">
-        <v>112.9490275981577</v>
+        <v>421.6339696926699</v>
       </c>
       <c r="F3" t="n">
-        <v>40.98216536282604</v>
+        <v>297.2021635758017</v>
       </c>
       <c r="G3" t="n">
-        <v>40.98216536282604</v>
+        <v>177.1423456476662</v>
       </c>
       <c r="H3" t="n">
-        <v>40.98216536282604</v>
+        <v>88.84492924826708</v>
       </c>
       <c r="I3" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="J3" t="n">
-        <v>40.98216536282604</v>
+        <v>152.572657479906</v>
       </c>
       <c r="K3" t="n">
-        <v>360.7213114250525</v>
+        <v>152.572657479906</v>
       </c>
       <c r="L3" t="n">
-        <v>360.7213114250525</v>
+        <v>636.1387433782193</v>
       </c>
       <c r="M3" t="n">
-        <v>867.8756077900248</v>
+        <v>1124.42747472293</v>
       </c>
       <c r="N3" t="n">
-        <v>901.9675115050419</v>
+        <v>1612.716206067641</v>
       </c>
       <c r="O3" t="n">
-        <v>1409.121807870014</v>
+        <v>1612.716206067641</v>
       </c>
       <c r="P3" t="n">
-        <v>1814.743176586412</v>
+        <v>1738.518671454043</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008933</v>
       </c>
       <c r="R3" t="n">
-        <v>2025.191225039367</v>
+        <v>1948.966719906998</v>
       </c>
       <c r="S3" t="n">
-        <v>1890.260547939236</v>
+        <v>1896.494925152879</v>
       </c>
       <c r="T3" t="n">
-        <v>1713.276736138144</v>
+        <v>1719.511113351787</v>
       </c>
       <c r="U3" t="n">
-        <v>1503.213592816786</v>
+        <v>1509.447970030429</v>
       </c>
       <c r="V3" t="n">
-        <v>1280.673591187853</v>
+        <v>1286.907968401496</v>
       </c>
       <c r="W3" t="n">
-        <v>1050.55634532114</v>
+        <v>1056.790722534783</v>
       </c>
       <c r="X3" t="n">
-        <v>861.2492676711515</v>
+        <v>867.4836448847946</v>
       </c>
       <c r="Y3" t="n">
-        <v>681.9350507466588</v>
+        <v>688.1694279603018</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>672.8181588659768</v>
+        <v>112.7462358424185</v>
       </c>
       <c r="C4" t="n">
-        <v>672.8181588659768</v>
+        <v>112.7462358424185</v>
       </c>
       <c r="D4" t="n">
-        <v>672.8181588659768</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="E4" t="n">
-        <v>517.2593467251793</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="F4" t="n">
-        <v>359.9334119381523</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="G4" t="n">
-        <v>359.9334119381523</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="H4" t="n">
-        <v>204.4548608996462</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="I4" t="n">
-        <v>71.3604355367241</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="J4" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="K4" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701205</v>
       </c>
       <c r="L4" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439203</v>
       </c>
       <c r="M4" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821843</v>
       </c>
       <c r="N4" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133935</v>
       </c>
       <c r="O4" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551015</v>
       </c>
       <c r="P4" t="n">
-        <v>939.0069915343274</v>
+        <v>937.48250143168</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.4291879043784</v>
+        <v>940.904697801731</v>
       </c>
       <c r="R4" t="n">
-        <v>942.4291879043784</v>
+        <v>817.003708434308</v>
       </c>
       <c r="S4" t="n">
-        <v>942.4291879043784</v>
+        <v>817.003708434308</v>
       </c>
       <c r="T4" t="n">
-        <v>906.8984810829937</v>
+        <v>581.2846566025421</v>
       </c>
       <c r="U4" t="n">
-        <v>906.8984810829937</v>
+        <v>581.2846566025421</v>
       </c>
       <c r="V4" t="n">
-        <v>906.8984810829937</v>
+        <v>581.2846566025421</v>
       </c>
       <c r="W4" t="n">
-        <v>906.8984810829937</v>
+        <v>297.9542545337197</v>
       </c>
       <c r="X4" t="n">
-        <v>672.8181588659768</v>
+        <v>297.9542545337197</v>
       </c>
       <c r="Y4" t="n">
-        <v>672.8181588659768</v>
+        <v>297.9542545337197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>907.9953525990973</v>
+        <v>307.3210494754479</v>
       </c>
       <c r="C5" t="n">
-        <v>907.9953525990973</v>
+        <v>61.43406116138962</v>
       </c>
       <c r="D5" t="n">
-        <v>907.9953525990973</v>
+        <v>61.43406116138962</v>
       </c>
       <c r="E5" t="n">
-        <v>907.9953525990973</v>
+        <v>61.43406116138962</v>
       </c>
       <c r="F5" t="n">
-        <v>491.100914129075</v>
+        <v>48.58002673177144</v>
       </c>
       <c r="G5" t="n">
-        <v>77.93815861707816</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="H5" t="n">
-        <v>77.93815861707816</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="I5" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="J5" t="n">
-        <v>185.6319382716541</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="K5" t="n">
-        <v>544.614294299116</v>
+        <v>398.4400312876405</v>
       </c>
       <c r="L5" t="n">
-        <v>1037.934586017645</v>
+        <v>886.7287626323515</v>
       </c>
       <c r="M5" t="n">
-        <v>1037.934586017645</v>
+        <v>886.7287626323515</v>
       </c>
       <c r="N5" t="n">
-        <v>1545.088882382617</v>
+        <v>1347.998601975656</v>
       </c>
       <c r="O5" t="n">
-        <v>1985.128483274946</v>
+        <v>1788.038202867985</v>
       </c>
       <c r="P5" t="n">
-        <v>2049.108268141302</v>
+        <v>1788.038202867985</v>
       </c>
       <c r="Q5" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008933</v>
       </c>
       <c r="R5" t="n">
-        <v>2011.115354426824</v>
+        <v>1972.883763008933</v>
       </c>
       <c r="S5" t="n">
-        <v>1844.601799367875</v>
+        <v>1806.370207949984</v>
       </c>
       <c r="T5" t="n">
-        <v>1621.101196927291</v>
+        <v>1806.370207949984</v>
       </c>
       <c r="U5" t="n">
-        <v>1621.101196927291</v>
+        <v>1806.370207949984</v>
       </c>
       <c r="V5" t="n">
-        <v>1278.99438763081</v>
+        <v>1464.263398653502</v>
       </c>
       <c r="W5" t="n">
-        <v>907.9953525990973</v>
+        <v>1093.26436362179</v>
       </c>
       <c r="X5" t="n">
-        <v>907.9953525990973</v>
+        <v>703.8117585548467</v>
       </c>
       <c r="Y5" t="n">
-        <v>907.9953525990973</v>
+        <v>307.3210494754479</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>688.986436507764</v>
+        <v>838.8236584002096</v>
       </c>
       <c r="C6" t="n">
-        <v>538.3322060678562</v>
+        <v>688.1694279603018</v>
       </c>
       <c r="D6" t="n">
-        <v>408.2432386893365</v>
+        <v>558.0804605817822</v>
       </c>
       <c r="E6" t="n">
-        <v>271.7967478002242</v>
+        <v>421.6339696926699</v>
       </c>
       <c r="F6" t="n">
-        <v>147.3649416833561</v>
+        <v>297.2021635758017</v>
       </c>
       <c r="G6" t="n">
-        <v>40.98216536282604</v>
+        <v>177.1423456476662</v>
       </c>
       <c r="H6" t="n">
-        <v>40.98216536282604</v>
+        <v>88.84492924826708</v>
       </c>
       <c r="I6" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="J6" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="K6" t="n">
-        <v>360.7213114250525</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="L6" t="n">
-        <v>844.2873973233657</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="M6" t="n">
-        <v>844.2873973233657</v>
+        <v>847.4855526671161</v>
       </c>
       <c r="N6" t="n">
-        <v>1136.332603059932</v>
+        <v>1078.973662947825</v>
       </c>
       <c r="O6" t="n">
-        <v>1643.486899424905</v>
+        <v>1567.262394292536</v>
       </c>
       <c r="P6" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008933</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008933</v>
       </c>
       <c r="R6" t="n">
-        <v>2049.108268141302</v>
+        <v>1948.966719906998</v>
       </c>
       <c r="S6" t="n">
-        <v>2049.108268141302</v>
+        <v>1814.036042806867</v>
       </c>
       <c r="T6" t="n">
-        <v>1872.124456340211</v>
+        <v>1637.052231005775</v>
       </c>
       <c r="U6" t="n">
-        <v>1662.061313018852</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="V6" t="n">
-        <v>1439.521311389919</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="W6" t="n">
-        <v>1209.404065523206</v>
+        <v>1359.241287415652</v>
       </c>
       <c r="X6" t="n">
-        <v>1020.096987873218</v>
+        <v>1169.934209765664</v>
       </c>
       <c r="Y6" t="n">
-        <v>840.7827709487253</v>
+        <v>990.619992841171</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497.8091956648086</v>
+        <v>225.469058531562</v>
       </c>
       <c r="C7" t="n">
-        <v>497.8091956648086</v>
+        <v>225.469058531562</v>
       </c>
       <c r="D7" t="n">
-        <v>497.8091956648086</v>
+        <v>69.83594543407672</v>
       </c>
       <c r="E7" t="n">
-        <v>497.8091956648086</v>
+        <v>69.83594543407672</v>
       </c>
       <c r="F7" t="n">
-        <v>497.8091956648086</v>
+        <v>69.83594543407672</v>
       </c>
       <c r="G7" t="n">
-        <v>329.5551417642542</v>
+        <v>69.83594543407672</v>
       </c>
       <c r="H7" t="n">
-        <v>174.0765907257482</v>
+        <v>69.83594543407672</v>
       </c>
       <c r="I7" t="n">
-        <v>40.98216536282604</v>
+        <v>69.83594543407672</v>
       </c>
       <c r="J7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017867</v>
       </c>
       <c r="K7" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701205</v>
       </c>
       <c r="L7" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439203</v>
       </c>
       <c r="M7" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821843</v>
       </c>
       <c r="N7" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133935</v>
       </c>
       <c r="O7" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551015</v>
       </c>
       <c r="P7" t="n">
-        <v>939.0069915343274</v>
+        <v>937.48250143168</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.904697801731</v>
       </c>
       <c r="R7" t="n">
-        <v>942.4291879043784</v>
+        <v>817.003708434308</v>
       </c>
       <c r="S7" t="n">
-        <v>942.4291879043784</v>
+        <v>817.003708434308</v>
       </c>
       <c r="T7" t="n">
-        <v>942.4291879043784</v>
+        <v>776.8871954688368</v>
       </c>
       <c r="U7" t="n">
-        <v>942.4291879043784</v>
+        <v>491.4484037107378</v>
       </c>
       <c r="V7" t="n">
-        <v>731.8895178818256</v>
+        <v>225.469058531562</v>
       </c>
       <c r="W7" t="n">
-        <v>731.8895178818256</v>
+        <v>225.469058531562</v>
       </c>
       <c r="X7" t="n">
-        <v>497.8091956648086</v>
+        <v>225.469058531562</v>
       </c>
       <c r="Y7" t="n">
-        <v>497.8091956648086</v>
+        <v>225.469058531562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>651.050737184763</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>257.8752356876935</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>257.8752356876935</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>257.8752356876935</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1448.036191975559</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1448.036191975559</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1051.54548289616</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1549.231189288413</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>2065.751471879394</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
         <v>202.9460831990289</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>781.4712810076976</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1598.673070414051</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.43825020417</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708026</v>
+        <v>731.4357765463901</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117585</v>
+        <v>423.792932950123</v>
       </c>
       <c r="F11" t="n">
         <v>380.341201928924</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K11" t="n">
         <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M11" t="n">
         <v>1605.072448403515</v>
@@ -5057,7 +5057,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3023.513568164042</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3023.513568164042</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2776.347440154749</v>
+        <v>2497.845413993113</v>
       </c>
       <c r="W11" t="n">
-        <v>2500.289086410225</v>
+        <v>2221.787060248589</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.77716263047</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.22713483826</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
         <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5194,55 +5194,55 @@
         <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592129</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1625.725108676624</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1327.490288466743</v>
       </c>
       <c r="D14" t="n">
         <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580793</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>609.4835710752454</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
         <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129437</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
@@ -5300,28 +5300,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205778</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205778</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205778</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2858.790257196485</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2582.731903451961</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.36950398458</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551009</v>
       </c>
       <c r="C16" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082783</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979815</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443723</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445336</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311673</v>
+        <v>160.8107415311675</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798496</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362515</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469766</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5467,19 +5467,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852108</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553822</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592138</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975461</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099323</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924327</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129455</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404073</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358936</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403517</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040979</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840158</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443167</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411556</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411556</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885601</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369577</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218808</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072693</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462928</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031230084</v>
+        <v>67.69877031229882</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222427</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184709</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567349</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879441</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296521</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106231</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197453</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
@@ -5738,64 +5738,64 @@
         <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924236</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358936</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403517</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040979</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5823,22 @@
         <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>596.176270190801</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885601</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369577</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218808</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072693</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462929</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879441</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296521</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106231</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476282</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197453</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924237</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
         <v>565.7512566404055</v>
@@ -6011,28 +6011,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071063</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573997</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224693</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840158</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443167</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411556</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>830.5413617456916</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885603</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369578</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218809</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634918</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588731</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072698</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462931</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133152</v>
       </c>
       <c r="N25" t="n">
-        <v>683.142663665516</v>
+        <v>804.5780233445244</v>
       </c>
       <c r="O25" t="n">
-        <v>845.847430707224</v>
+        <v>967.2827903862324</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838026</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476282</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918822</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161915</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194241</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330101</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984015</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974532</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1877.542679919435</v>
+        <v>1835.670734401736</v>
       </c>
       <c r="C26" t="n">
-        <v>1579.307859709554</v>
+        <v>1537.435914191854</v>
       </c>
       <c r="D26" t="n">
-        <v>1288.80741221341</v>
+        <v>1246.935466695711</v>
       </c>
       <c r="E26" t="n">
-        <v>981.1645686171428</v>
+        <v>939.2926230994436</v>
       </c>
       <c r="F26" t="n">
-        <v>659.2108114343089</v>
+        <v>617.33886591661</v>
       </c>
       <c r="G26" t="n">
-        <v>340.9887372095004</v>
+        <v>299.1167916918014</v>
       </c>
       <c r="H26" t="n">
-        <v>111.8463680631799</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="I26" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="J26" t="n">
-        <v>213.0997053516612</v>
+        <v>214.6241954543086</v>
       </c>
       <c r="K26" t="n">
-        <v>665.1334231086963</v>
+        <v>573.6065514817703</v>
       </c>
       <c r="L26" t="n">
-        <v>1158.453714827225</v>
+        <v>1159.978204929872</v>
       </c>
       <c r="M26" t="n">
-        <v>1704.454614871806</v>
+        <v>1755.919960014603</v>
       </c>
       <c r="N26" t="n">
-        <v>2300.55810024927</v>
+        <v>2376.782605381638</v>
       </c>
       <c r="O26" t="n">
-        <v>2833.649062871172</v>
+        <v>2909.87356800354</v>
       </c>
       <c r="P26" t="n">
-        <v>3181.836555002693</v>
+        <v>3258.061060135061</v>
       </c>
       <c r="Q26" t="n">
-        <v>3366.682115143642</v>
+        <v>3442.90662027601</v>
       </c>
       <c r="R26" t="n">
-        <v>3422.496622141655</v>
+        <v>3498.721127274023</v>
       </c>
       <c r="S26" t="n">
-        <v>3350.923748369894</v>
+        <v>3427.148253502262</v>
       </c>
       <c r="T26" t="n">
-        <v>3222.3638272165</v>
+        <v>3298.588332348867</v>
       </c>
       <c r="U26" t="n">
-        <v>3061.551778938287</v>
+        <v>3137.776284070655</v>
       </c>
       <c r="V26" t="n">
-        <v>3055.217049660133</v>
+        <v>2890.610156061362</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.158695915609</v>
+        <v>2614.551802316837</v>
       </c>
       <c r="X26" t="n">
-        <v>2484.646772135854</v>
+        <v>2320.039878537083</v>
       </c>
       <c r="Y26" t="n">
-        <v>2183.096744343644</v>
+        <v>2141.224798825945</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855114</v>
       </c>
       <c r="C27" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456036</v>
       </c>
       <c r="D27" t="n">
-        <v>587.0727177644367</v>
+        <v>588.597207867084</v>
       </c>
       <c r="E27" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779717</v>
       </c>
       <c r="F27" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611035</v>
       </c>
       <c r="G27" t="n">
-        <v>206.1346028303206</v>
+        <v>207.659092932968</v>
       </c>
       <c r="H27" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335689</v>
       </c>
       <c r="I27" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5649146625605</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="K27" t="n">
-        <v>501.304060724787</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="L27" t="n">
-        <v>984.8701466231003</v>
+        <v>553.5405084437937</v>
       </c>
       <c r="M27" t="n">
-        <v>1464.64381611109</v>
+        <v>576.0252434482885</v>
       </c>
       <c r="N27" t="n">
-        <v>1464.64381611109</v>
+        <v>1231.803214658848</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.164098702072</v>
+        <v>1748.323497249829</v>
       </c>
       <c r="P27" t="n">
-        <v>2386.785467418469</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W27" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050966</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.4151716938178</v>
+        <v>500.9396617964645</v>
       </c>
       <c r="C28" t="n">
-        <v>424.1507350469954</v>
+        <v>425.6752251496422</v>
       </c>
       <c r="D28" t="n">
-        <v>363.4583032366984</v>
+        <v>364.9827933393454</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8401723830896</v>
+        <v>304.3646624857364</v>
       </c>
       <c r="F28" t="n">
-        <v>240.4549188832507</v>
+        <v>241.9794089858977</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1415462698843</v>
+        <v>168.6660363725319</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212142</v>
       </c>
       <c r="I28" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="J28" t="n">
-        <v>131.727551574969</v>
+        <v>133.2520416776161</v>
       </c>
       <c r="K28" t="n">
-        <v>306.6139544144836</v>
+        <v>308.138444517131</v>
       </c>
       <c r="L28" t="n">
-        <v>563.7929560178565</v>
+        <v>565.3174461205039</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1358960856936</v>
+        <v>844.6603861883412</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.376891846476</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O28" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720405</v>
       </c>
       <c r="P28" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.534106223534</v>
+        <v>1686.058596326181</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.573798143299</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715684</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700196</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W28" t="n">
-        <v>856.9935299239276</v>
+        <v>858.5180200265747</v>
       </c>
       <c r="X28" t="n">
-        <v>717.8538889940991</v>
+        <v>719.3783790967461</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.6825090979307</v>
+        <v>591.2069992005777</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.542679919435</v>
+        <v>1712.935786320664</v>
       </c>
       <c r="C29" t="n">
-        <v>1579.307859709554</v>
+        <v>1414.700966110781</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.80741221341</v>
+        <v>1124.200518614638</v>
       </c>
       <c r="E29" t="n">
-        <v>981.1645686171433</v>
+        <v>816.5576750183706</v>
       </c>
       <c r="F29" t="n">
-        <v>659.2108114343094</v>
+        <v>617.33886591661</v>
       </c>
       <c r="G29" t="n">
-        <v>340.988737209501</v>
+        <v>299.1167916918014</v>
       </c>
       <c r="H29" t="n">
-        <v>111.8463680631799</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="I29" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="J29" t="n">
-        <v>306.1510670812345</v>
+        <v>214.6241954543086</v>
       </c>
       <c r="K29" t="n">
-        <v>758.1847848382696</v>
+        <v>666.6579132113436</v>
       </c>
       <c r="L29" t="n">
-        <v>1251.505076556798</v>
+        <v>1209.919059970021</v>
       </c>
       <c r="M29" t="n">
-        <v>1797.505976601379</v>
+        <v>1755.919960014602</v>
       </c>
       <c r="N29" t="n">
-        <v>2393.609461978842</v>
+        <v>2376.782605381637</v>
       </c>
       <c r="O29" t="n">
-        <v>2833.649062871171</v>
+        <v>2816.822206273966</v>
       </c>
       <c r="P29" t="n">
-        <v>3181.836555002693</v>
+        <v>3258.061060135061</v>
       </c>
       <c r="Q29" t="n">
-        <v>3366.682115143642</v>
+        <v>3442.90662027601</v>
       </c>
       <c r="R29" t="n">
-        <v>3422.496622141655</v>
+        <v>3498.721127274023</v>
       </c>
       <c r="S29" t="n">
-        <v>3350.923748369894</v>
+        <v>3427.148253502262</v>
       </c>
       <c r="T29" t="n">
-        <v>3222.363827216499</v>
+        <v>3298.588332348867</v>
       </c>
       <c r="U29" t="n">
-        <v>3061.551778938286</v>
+        <v>3137.776284070655</v>
       </c>
       <c r="V29" t="n">
-        <v>2814.385650928993</v>
+        <v>2890.610156061362</v>
       </c>
       <c r="W29" t="n">
-        <v>2779.158695915609</v>
+        <v>2614.551802316837</v>
       </c>
       <c r="X29" t="n">
-        <v>2484.646772135854</v>
+        <v>2320.039878537083</v>
       </c>
       <c r="Y29" t="n">
-        <v>2183.096744343644</v>
+        <v>2018.489850744872</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855114</v>
       </c>
       <c r="C30" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456036</v>
       </c>
       <c r="D30" t="n">
-        <v>587.0727177644367</v>
+        <v>588.597207867084</v>
       </c>
       <c r="E30" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779717</v>
       </c>
       <c r="F30" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611035</v>
       </c>
       <c r="G30" t="n">
-        <v>206.1346028303206</v>
+        <v>207.659092932968</v>
       </c>
       <c r="H30" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335689</v>
       </c>
       <c r="I30" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="J30" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="K30" t="n">
-        <v>388.1890785050596</v>
+        <v>389.7135686077069</v>
       </c>
       <c r="L30" t="n">
-        <v>871.7551644033729</v>
+        <v>389.7135686077069</v>
       </c>
       <c r="M30" t="n">
-        <v>1499.526814030054</v>
+        <v>1017.485218234388</v>
       </c>
       <c r="N30" t="n">
-        <v>1499.526814030054</v>
+        <v>1231.803214658848</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.047096621035</v>
+        <v>1748.323497249829</v>
       </c>
       <c r="P30" t="n">
-        <v>2386.785467418469</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050966</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.4151716938183</v>
+        <v>500.9396617964657</v>
       </c>
       <c r="C31" t="n">
-        <v>424.1507350469959</v>
+        <v>425.6752251496432</v>
       </c>
       <c r="D31" t="n">
-        <v>363.458303236699</v>
+        <v>364.982793339346</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8401723830898</v>
+        <v>304.3646624857372</v>
       </c>
       <c r="F31" t="n">
-        <v>240.4549188832511</v>
+        <v>241.9794089858985</v>
       </c>
       <c r="G31" t="n">
-        <v>167.141546269885</v>
+        <v>168.6660363725322</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6036765185672</v>
+        <v>108.1281666212145</v>
       </c>
       <c r="I31" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="J31" t="n">
-        <v>131.7275515749689</v>
+        <v>133.2520416776163</v>
       </c>
       <c r="K31" t="n">
-        <v>306.6139544144841</v>
+        <v>308.1384445171315</v>
       </c>
       <c r="L31" t="n">
-        <v>563.7929560178569</v>
+        <v>565.3174461205043</v>
       </c>
       <c r="M31" t="n">
-        <v>843.1358960856942</v>
+        <v>844.6603861883417</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226558</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.534106223535</v>
+        <v>1686.058596326182</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.698395613038</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W31" t="n">
-        <v>856.993529923928</v>
+        <v>858.5180200265754</v>
       </c>
       <c r="X31" t="n">
-        <v>717.8538889940995</v>
+        <v>719.3783790967469</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.6825090979312</v>
+        <v>591.2069992005786</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H32" t="n">
         <v>68.77950792924223</v>
@@ -6740,10 +6740,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6856,25 +6856,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N34" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O34" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P34" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
         <v>1098.20216247628</v>
@@ -6920,25 +6920,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924234</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6968,7 +6968,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7011,28 +7011,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885588</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218799</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
         <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072654</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291067</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511124</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>804.5780233445246</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240295</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P37" t="n">
-        <v>1059.426580900608</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q37" t="n">
         <v>1090.581152532862</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924211</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7196,16 +7196,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7236,10 +7236,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7248,19 +7248,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>112.6101842924878</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369565</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218798</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072652</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960396</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343036</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655128</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1631.639822887696</v>
+        <v>1428.779014516732</v>
       </c>
       <c r="C41" t="n">
-        <v>1351.960999962836</v>
+        <v>1144.120190589891</v>
       </c>
       <c r="D41" t="n">
-        <v>1080.016549751712</v>
+        <v>867.1957393767865</v>
       </c>
       <c r="E41" t="n">
-        <v>790.929703440466</v>
+        <v>615.8837008044986</v>
       </c>
       <c r="F41" t="n">
-        <v>572.3715765052035</v>
+        <v>307.5059399047043</v>
       </c>
       <c r="G41" t="n">
-        <v>272.7054995654158</v>
+        <v>307.5059399047043</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>91.93956704142281</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U41" t="n">
-        <v>2963.700334212584</v>
+        <v>2785.739530851527</v>
       </c>
       <c r="V41" t="n">
-        <v>2735.090203488312</v>
+        <v>2552.149399125273</v>
       </c>
       <c r="W41" t="n">
-        <v>2477.587847028808</v>
+        <v>2289.667041663788</v>
       </c>
       <c r="X41" t="n">
-        <v>2201.631920534074</v>
+        <v>2008.731114167072</v>
       </c>
       <c r="Y41" t="n">
-        <v>1918.637890026884</v>
+        <v>1720.757082657901</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>803.0057595505241</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.783730761083</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1975.304013352064</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.1923859599552</v>
+        <v>398.0523929738234</v>
       </c>
       <c r="C43" t="n">
-        <v>306.4839465981535</v>
+        <v>336.3639526100405</v>
       </c>
       <c r="D43" t="n">
-        <v>264.3475120728773</v>
+        <v>289.2475170827832</v>
       </c>
       <c r="E43" t="n">
-        <v>222.2853785042889</v>
+        <v>242.2053825122136</v>
       </c>
       <c r="F43" t="n">
-        <v>178.4561222894709</v>
+        <v>193.3961252954144</v>
       </c>
       <c r="G43" t="n">
-        <v>123.6987469611255</v>
+        <v>133.6587489650879</v>
       </c>
       <c r="H43" t="n">
-        <v>81.71687449482856</v>
+        <v>86.69687549680975</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>143.5834797753002</v>
+        <v>138.7025807932584</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6566155538642</v>
+        <v>220.5376219032003</v>
       </c>
       <c r="L43" t="n">
-        <v>612.0223500962861</v>
+        <v>384.6652617770001</v>
       </c>
       <c r="M43" t="n">
-        <v>909.5520231031722</v>
+        <v>570.9568401152641</v>
       </c>
       <c r="N43" t="n">
-        <v>1095.304215736148</v>
+        <v>860.5036698330537</v>
       </c>
       <c r="O43" t="n">
-        <v>1258.008982777856</v>
+        <v>1124.974607436394</v>
       </c>
       <c r="P43" t="n">
-        <v>1377.885148554434</v>
+        <v>1351.207968899553</v>
       </c>
       <c r="Q43" t="n">
-        <v>1381.307344924485</v>
+        <v>1460.987360956184</v>
       </c>
       <c r="R43" t="n">
-        <v>1370.903034129271</v>
+        <v>1445.603049158989</v>
       </c>
       <c r="S43" t="n">
-        <v>1281.58362888403</v>
+        <v>1351.303642911766</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.361255624473</v>
+        <v>1224.101268650228</v>
       </c>
       <c r="U43" t="n">
-        <v>987.4191424385828</v>
+        <v>1047.179154462357</v>
       </c>
       <c r="V43" t="n">
-        <v>834.936475831616</v>
+        <v>889.7164868534092</v>
       </c>
       <c r="W43" t="n">
-        <v>665.1027523350027</v>
+        <v>714.9027623548146</v>
       </c>
       <c r="X43" t="n">
-        <v>544.5191086901949</v>
+        <v>589.3391177080256</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.9037260790474</v>
+        <v>474.7437340948968</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1741.319894185573</v>
+        <v>1486.775892005453</v>
       </c>
       <c r="C44" t="n">
-        <v>1461.641071260713</v>
+        <v>1202.117068078612</v>
       </c>
       <c r="D44" t="n">
-        <v>1189.696621049589</v>
+        <v>969.2098138589064</v>
       </c>
       <c r="E44" t="n">
-        <v>900.6097747383429</v>
+        <v>675.1429665456787</v>
       </c>
       <c r="F44" t="n">
-        <v>597.2120148405297</v>
+        <v>366.7652056458845</v>
       </c>
       <c r="G44" t="n">
-        <v>297.545937900742</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>86.95956603944165</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3052.939508719036</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2942.935584850662</v>
+        <v>2990.972460335421</v>
       </c>
       <c r="U44" t="n">
-        <v>2800.679533857469</v>
+        <v>2843.736408340247</v>
       </c>
       <c r="V44" t="n">
-        <v>2572.069403133197</v>
+        <v>2610.146276613993</v>
       </c>
       <c r="W44" t="n">
-        <v>2314.567046673693</v>
+        <v>2347.663919152509</v>
       </c>
       <c r="X44" t="n">
-        <v>2038.611120178959</v>
+        <v>2066.727991655793</v>
       </c>
       <c r="Y44" t="n">
-        <v>1755.61708967177</v>
+        <v>1778.753960146622</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.1923859599553</v>
+        <v>398.0523929738234</v>
       </c>
       <c r="C46" t="n">
-        <v>306.4839465981536</v>
+        <v>336.3639526100405</v>
       </c>
       <c r="D46" t="n">
-        <v>264.3475120728774</v>
+        <v>289.2475170827831</v>
       </c>
       <c r="E46" t="n">
-        <v>222.285378504289</v>
+        <v>242.2053825122136</v>
       </c>
       <c r="F46" t="n">
-        <v>178.456122289471</v>
+        <v>193.3961252954144</v>
       </c>
       <c r="G46" t="n">
-        <v>123.6987469611256</v>
+        <v>133.6587489650879</v>
       </c>
       <c r="H46" t="n">
-        <v>81.71687449482859</v>
+        <v>86.69687549680972</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>143.5834797753001</v>
+        <v>138.7025807932584</v>
       </c>
       <c r="K46" t="n">
-        <v>225.418520885242</v>
+        <v>326.8948175897807</v>
       </c>
       <c r="L46" t="n">
-        <v>389.5461607590418</v>
+        <v>592.7886280252126</v>
       </c>
       <c r="M46" t="n">
-        <v>687.0758337659279</v>
+        <v>779.0802063634766</v>
       </c>
       <c r="N46" t="n">
-        <v>981.5035624657592</v>
+        <v>1068.627036081266</v>
       </c>
       <c r="O46" t="n">
-        <v>1146.770888109234</v>
+        <v>1231.331803122974</v>
       </c>
       <c r="P46" t="n">
-        <v>1266.647053885813</v>
+        <v>1457.565164586133</v>
       </c>
       <c r="Q46" t="n">
-        <v>1381.307344924486</v>
+        <v>1460.987360956184</v>
       </c>
       <c r="R46" t="n">
-        <v>1370.903034129272</v>
+        <v>1445.603049158989</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.58362888403</v>
+        <v>1351.303642911766</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.361255624473</v>
+        <v>1224.101268650228</v>
       </c>
       <c r="U46" t="n">
-        <v>987.4191424385832</v>
+        <v>1047.179154462357</v>
       </c>
       <c r="V46" t="n">
-        <v>834.9364758316165</v>
+        <v>889.716486853409</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1027523350031</v>
+        <v>714.9027623548145</v>
       </c>
       <c r="X46" t="n">
-        <v>544.5191086901953</v>
+        <v>589.3391177080255</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9037260790476</v>
+        <v>474.7437340948968</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>183.1679356791144</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>379.7962264036498</v>
+        <v>646.469110482725</v>
       </c>
       <c r="M2" t="n">
-        <v>662.0021186330528</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>661.3955583731097</v>
+        <v>642.3394320900175</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>604.6641890846374</v>
+        <v>585.6080628015452</v>
       </c>
       <c r="N3" t="n">
-        <v>119.8083792329718</v>
+        <v>578.5930536064</v>
       </c>
       <c r="O3" t="n">
-        <v>604.9646259242145</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>214.1565621793164</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>646.469110482725</v>
       </c>
       <c r="M5" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>661.3955583731097</v>
+        <v>615.0476219875869</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>214.9274925604773</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>585.6080628015452</v>
       </c>
       <c r="N6" t="n">
-        <v>380.36727016383</v>
+        <v>319.1984868750845</v>
       </c>
       <c r="O6" t="n">
-        <v>604.9646259242145</v>
+        <v>585.9084996411223</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,25 +8529,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>279.5693555729968</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>153.277245266684</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,10 +8778,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9006,25 +9006,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684369</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>351.8313913012159</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9404,7 +9404,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987045</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>543.2755872400996</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>577.006990218999</v>
+        <v>115.0989755892057</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,22 +10194,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>301.8549375253377</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,13 +10428,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,16 +10902,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>90.06034685691823</v>
@@ -11151,13 +11151,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,25 +11376,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000194</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>116.5130781045869</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749094</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404346</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>145.2325565835392</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>238.4230847438289</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.5075986002631</v>
       </c>
     </row>
     <row r="27">
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>121.5075986002626</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>238.4230847438293</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>42.32726065353069</v>
       </c>
       <c r="F41" t="n">
-        <v>83.9912366329248</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>301.5996171623513</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24.59203395197284</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.48670772187296</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9038846296905</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>269.9738629364613</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>43.57702502346424</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>213.4107091346486</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.52223494393419</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.41690871383432</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>766237.087692619</v>
+        <v>764856.2692329787</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>766237.087692619</v>
+        <v>764856.2692329787</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738382.6364175697</v>
+        <v>738382.6364175695</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738382.6364175698</v>
+        <v>738382.6364175696</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780721.252517032</v>
+        <v>780721.2525170319</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>762217.2369100633</v>
+        <v>767956.7303948553</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>762217.2369100632</v>
+        <v>767956.7303948553</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759768.5810145332</v>
+        <v>754029.0875297412</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759768.5810145331</v>
+        <v>754029.0875297412</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>559029.7520894057</v>
+      </c>
+      <c r="C2" t="n">
         <v>559029.7520894058</v>
       </c>
-      <c r="C2" t="n">
-        <v>559029.7520894062</v>
-      </c>
       <c r="D2" t="n">
-        <v>559029.752089406</v>
+        <v>559029.7520894059</v>
       </c>
       <c r="E2" t="n">
-        <v>525375.9803180383</v>
+        <v>525375.9803180387</v>
       </c>
       <c r="F2" t="n">
-        <v>525375.9803180383</v>
+        <v>525375.9803180388</v>
       </c>
       <c r="G2" t="n">
         <v>559029.7520894064</v>
       </c>
       <c r="H2" t="n">
-        <v>559029.7520894061</v>
+        <v>559029.7520894065</v>
       </c>
       <c r="I2" t="n">
-        <v>559029.7520894066</v>
+        <v>559029.7520894065</v>
       </c>
       <c r="J2" t="n">
-        <v>544321.4319915593</v>
+        <v>548883.5934794715</v>
       </c>
       <c r="K2" t="n">
-        <v>544321.4319915596</v>
+        <v>548883.5934794716</v>
       </c>
       <c r="L2" t="n">
         <v>559029.7520894064</v>
       </c>
       <c r="M2" t="n">
-        <v>559029.7520894062</v>
+        <v>559029.7520894064</v>
       </c>
       <c r="N2" t="n">
-        <v>559029.7520894061</v>
+        <v>559029.7520894065</v>
       </c>
       <c r="O2" t="n">
-        <v>542375.0644848554</v>
+        <v>537812.9029969439</v>
       </c>
       <c r="P2" t="n">
-        <v>542375.0644848556</v>
+        <v>537812.9029969438</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171675.8275360794</v>
+        <v>165289.6813277107</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24581.72344984795</v>
+        <v>30501.12795716489</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301425</v>
+        <v>29094.95587301437</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720424</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602859</v>
+        <v>58189.91174602872</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989173</v>
+        <v>46121.92123989165</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31699.45768316093</v>
+        <v>27755.29688959174</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238615.3248246</v>
+        <v>242370.3115962892</v>
       </c>
       <c r="C4" t="n">
-        <v>238615.3248246</v>
+        <v>242370.3115962891</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26427,7 +26427,7 @@
         <v>174664.8493247784</v>
       </c>
       <c r="F4" t="n">
-        <v>174664.8493247785</v>
+        <v>174664.8493247784</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
@@ -26439,10 +26439,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>188938.3872119905</v>
+        <v>192375.5280079685</v>
       </c>
       <c r="K4" t="n">
-        <v>188938.3872119905</v>
+        <v>192375.5280079685</v>
       </c>
       <c r="L4" t="n">
         <v>199269.1699682603</v>
@@ -26454,10 +26454,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>187091.6797433468</v>
+        <v>183756.6055360512</v>
       </c>
       <c r="P4" t="n">
-        <v>187091.6797433468</v>
+        <v>183756.6055360512</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64774.0456757478</v>
+        <v>63615.43319773578</v>
       </c>
       <c r="C5" t="n">
-        <v>64774.0456757478</v>
+        <v>63615.43319773578</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,37 +26479,37 @@
         <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890913</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>59923.70111033447</v>
+        <v>61082.31358834646</v>
       </c>
       <c r="K5" t="n">
-        <v>59923.70111033446</v>
+        <v>61082.31358834646</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>56656.67380330597</v>
+        <v>56242.19673611277</v>
       </c>
       <c r="P5" t="n">
-        <v>56656.67380330597</v>
+        <v>56242.19673611277</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83964.55405297861</v>
+        <v>87754.32596767004</v>
       </c>
       <c r="C6" t="n">
-        <v>255640.3815890585</v>
+        <v>253044.0072953809</v>
       </c>
       <c r="D6" t="n">
-        <v>241840.7148107175</v>
+        <v>235921.3103034004</v>
       </c>
       <c r="E6" t="n">
-        <v>165145.9103466386</v>
+        <v>165037.349792538</v>
       </c>
       <c r="F6" t="n">
-        <v>295598.8414843506</v>
+        <v>295490.2809302502</v>
       </c>
       <c r="G6" t="n">
-        <v>272495.8569326121</v>
+        <v>272495.856932612</v>
       </c>
       <c r="H6" t="n">
-        <v>301590.8128056262</v>
+        <v>301590.8128056265</v>
       </c>
       <c r="I6" t="n">
-        <v>301590.8128056267</v>
+        <v>301590.8128056265</v>
       </c>
       <c r="J6" t="n">
-        <v>94621.84559719196</v>
+        <v>94555.52426721135</v>
       </c>
       <c r="K6" t="n">
-        <v>295459.3436692347</v>
+        <v>295393.0223392537</v>
       </c>
       <c r="L6" t="n">
-        <v>243400.9010595978</v>
+        <v>243400.9010595977</v>
       </c>
       <c r="M6" t="n">
-        <v>255468.8915657345</v>
+        <v>255468.8915657347</v>
       </c>
       <c r="N6" t="n">
-        <v>301590.8128056261</v>
+        <v>301590.8128056265</v>
       </c>
       <c r="O6" t="n">
-        <v>266927.2532550417</v>
+        <v>269990.3623865029</v>
       </c>
       <c r="P6" t="n">
-        <v>298626.7109382029</v>
+        <v>297745.6592760945</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>93.99127447431646</v>
+      </c>
+      <c r="F2" t="n">
         <v>93.99127447431644</v>
       </c>
-      <c r="F2" t="n">
-        <v>93.99127447431648</v>
-      </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
@@ -26716,16 +26716,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="P2" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
     </row>
     <row r="3">
@@ -26787,43 +26787,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="C4" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
+        <v>776.489096301444</v>
+      </c>
+      <c r="F4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="F4" t="n">
-        <v>776.4890963014444</v>
-      </c>
       <c r="G4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014445</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>855.6241555354138</v>
+        <v>874.6802818185058</v>
       </c>
       <c r="K4" t="n">
-        <v>855.6241555354137</v>
+        <v>874.6802818185058</v>
       </c>
       <c r="L4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
+        <v>776.489096301444</v>
+      </c>
+      <c r="N4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="N4" t="n">
-        <v>776.4890963014437</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126781</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304864</v>
+        <v>57.62257963304845</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253573</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.62432210395116</v>
+        <v>34.69412111198967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.13505923396951</v>
+        <v>98.19118551706174</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126781</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304864</v>
+        <v>57.62257963304845</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.13505923396951</v>
+        <v>98.19118551706174</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>370.3124512957995</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>362.3967693734473</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>51.94029444272115</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>81.63429352255187</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>81.521106990093</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>198.1864615602774</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,10 +27597,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,7 +27616,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>145.8156280511811</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>100.3673124167502</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13.5402711915295</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>160.7457511419688</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,16 +27786,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>193.6465134776317</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>54.88527840505671</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>350.2537248503702</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>66.12369447580221</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733466</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,43 +28719,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668966</v>
+        <v>35.71049010668765</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,10 +28992,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.636002634530541</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733463</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="N25" t="n">
-        <v>5.636002634530882</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="26">
@@ -29272,46 +29272,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>50.44530812136327</v>
       </c>
       <c r="N26" t="n">
-        <v>68.982021959598</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,25 +29533,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>50.44530812136259</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>68.98202195959709</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29946,10 +29946,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>5.636002634528936</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155845</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.2979821082769</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.01250026485125</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733193</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,37 +30378,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634527671</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="C41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="D41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="E41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="F41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="G41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="H41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="I41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="T41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="U41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="V41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="W41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="X41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="C43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="D43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="E43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="F43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="G43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="H43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="I43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="J43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="K43" t="n">
-        <v>112.361711786487</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>112.361711786487</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>112.361711786487</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.588443032087042</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>102.7941116784163</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="R43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="S43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="T43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="U43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="V43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="W43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="X43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="C44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="D44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="E44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="F44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="G44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="H44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="I44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="T44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="U44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="V44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="W44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="C46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="D46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="H46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="I46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="J46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>102.7941116784162</v>
       </c>
       <c r="M46" t="n">
-        <v>112.3617117864869</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="O46" t="n">
-        <v>2.588443032087838</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Q46" t="n">
-        <v>112.3617117864869</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="S46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="T46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="U46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="V46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="W46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="X46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945256</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>65.48809773676827</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>226.5480566731581</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="M2" t="n">
-        <v>512.2770670353256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="N3" t="n">
-        <v>34.43626637880516</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="O3" t="n">
-        <v>512.2770670353256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>127.0731973600018</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>512.2770670353256</v>
+        <v>465.9291306498029</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>64.62604531955209</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="N6" t="n">
-        <v>294.9951573096633</v>
+        <v>233.8263740209179</v>
       </c>
       <c r="O6" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522333</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>189.5090087160786</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>66.19388044736931</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,10 +35498,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
-        <v>1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260908</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>259.444269251904</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634530588</v>
+        <v>5.636002634528578</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682127</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.00106726098202</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,10 +36288,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094893</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453562</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>453.2152403831814</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610687</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094897</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257367</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>601.9613687724548</v>
       </c>
       <c r="N26" t="n">
-        <v>602.1247327045091</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36616,7 +36616,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>484.6198681696871</v>
+        <v>22.71185353989377</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>548.7486330895736</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>602.1247327045082</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36914,22 +36914,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>216.4828246711711</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M33" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37242,10 +37242,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>126.7230387724871</v>
+        <v>156.7975262446462</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832357</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.46926427500373</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835664</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>51.00106726098208</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565477</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>82.28722431432791</v>
+        <v>77.35702332236653</v>
       </c>
       <c r="K43" t="n">
-        <v>195.023369473297</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>278.147206608507</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>300.5350232392789</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>187.6284774070458</v>
+        <v>292.4715451694844</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>267.1423612154952</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>228.5185469324838</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>110.8882748046781</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>82.28722431432789</v>
+        <v>77.35702332236656</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>190.0931684813356</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>268.5796065004362</v>
       </c>
       <c r="M46" t="n">
-        <v>300.5350232392789</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>297.4017461614458</v>
+        <v>292.4715451694844</v>
       </c>
       <c r="O46" t="n">
-        <v>166.9366925691667</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>228.5185469324838</v>
       </c>
       <c r="Q46" t="n">
-        <v>115.8184757966394</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
